--- a/src/main/kotlin/marsHorizon/mh.xlsx
+++ b/src/main/kotlin/marsHorizon/mh.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00prg\Google\IJ_CodeWars\src\main\kotlin\marsHorizon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21458A3-2720-4031-8577-348E3A0215C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDDED10-FA3E-41EB-8156-4D0EA3EB40E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{F3F052BD-A488-453B-A9C3-811765652335}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="3" r:id="rId2"/>
-    <sheet name="4" sheetId="2" r:id="rId3"/>
+    <sheet name="3" sheetId="4" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>Start</t>
   </si>
@@ -937,6 +938,5594 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Рисунок 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDD1FDA-AABB-4B38-BCF8-C6DFD9487105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Рисунок 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE18F38-A812-4FA5-A34B-6952D7C5FC00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Рисунок 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE5EE27-45C4-45E9-A8F1-5282F9EB03F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Рисунок 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDA5806-A833-4294-B86D-A52FE6A1D91C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Рисунок 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F31375-2040-4BBE-930B-EB668698D16D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Рисунок 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D253B9A6-1972-43B1-A00A-AA5E040A06E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Рисунок 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D75E73-C159-4C58-A962-487C85EF76C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Рисунок 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B6EE59-5330-4282-9E4D-4050C559B783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Рисунок 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FF66D7-DDB4-4B1D-9888-BA496CE6B12B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Рисунок 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940A1995-2EAE-4EFD-9647-FE0B78EB0B90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Рисунок 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A0C9DA-A803-4F2B-ADF3-491EC67F510A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Рисунок 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329993D6-58EE-4524-9C58-356CDFCBFCDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Рисунок 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ADF465C-6036-48DA-A606-4F14E6CAC666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Рисунок 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE938A1-CB4D-4553-8BE1-BEB30357CCC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Рисунок 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFAC2012-C68D-4299-BC02-9431C877913E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Рисунок 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42DC585E-FD5E-468D-8CC3-9B3AC60EFA19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Рисунок 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0859D1C-C24E-4B8F-A591-8318CFBCBAB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Рисунок 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6D8FF8-EB99-4E3F-8B32-2E1B3D3B7FC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Рисунок 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502D8C8A-C7B4-4420-904C-E022741AA212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Рисунок 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15C285F-6FD8-41E6-BE55-F91E2C1732B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Рисунок 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E357861-394E-4A05-860A-A22802FC5BC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Рисунок 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F0FA861-B52F-4972-8AD5-A70945E5BB1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Рисунок 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B313982-3BE0-4EF2-85B2-CAB60727EEF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Рисунок 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFC4C99-25BB-4882-98C0-27A1B0115707}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Рисунок 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36F363B-08C2-49F6-BBBB-4766DE940D12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Рисунок 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86090701-6E6E-4FE1-A2F7-2BC7CB749DA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Рисунок 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{863C3C4C-1DD1-45B9-8D0F-69C4B88CAA2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Рисунок 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA426483-DFB2-47C0-851B-BC1CBD33CC01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Рисунок 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED2018B-F8A9-47DC-BB33-9F4F205FF604}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Рисунок 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF38B9D-D702-48B9-AF5C-339E7888F943}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Рисунок 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D66C06-8BFC-4D21-9311-0A4B349B1795}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Рисунок 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ACA0FC-3CCB-43FD-92C4-A3AF79C1BA61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Рисунок 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{880E56C0-22F3-448B-A42F-ECCF86C52FE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Рисунок 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46A5761-5BF8-4E61-8F86-06DA1DD314EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Рисунок 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEFD1F39-6F11-4D00-82B3-3BA822500B19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Рисунок 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5454A73C-F2A0-474F-BF03-2220E535DEE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Рисунок 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3091A99-BE41-4BBB-9418-2AE2D0654EED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Рисунок 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A72122-5C99-40F8-8C06-5E057554C2DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Рисунок 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2C611C-16AA-469B-80C4-395FBAA2DD4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Рисунок 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3872D6BB-5334-49AD-8222-8D15BDA4A0DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Рисунок 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763F05FC-C636-4549-A0E2-C23040FE04A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Рисунок 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8D5D08-BBE5-4766-8BE8-9F6AED40AEBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Рисунок 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1AB5B1-A2B3-4656-AFDB-3FFA1DC645B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Рисунок 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40755512-5A33-4966-A88E-9FEA53F80161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Рисунок 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B62615-2FE1-48E3-9CC0-F556C12FEA6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Рисунок 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EBC8ED-5533-43E7-9603-E555BA7ACE0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Рисунок 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6740886F-7CF4-452A-87CE-C3BF0EEE9423}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Рисунок 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B14915-E8FD-4F10-97F3-A4E9E55DF5FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Рисунок 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5AB6AC-8F15-4630-B4F9-538F736CF692}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Рисунок 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D63C2AC-4802-4BF6-BEE4-7FAE8F1D15A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Рисунок 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73107368-B9F9-45EF-9E9C-F4C14101D5BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Рисунок 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB4E4C9B-F62D-4B28-A9F1-71B9518D3EB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Рисунок 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEAA531F-B885-4819-9955-B7F1E252319D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Рисунок 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E709438-32B3-44A1-ACD6-F6747FDEAD99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Рисунок 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15252BA-AF5E-4688-AEC1-2C5CFD863F31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Рисунок 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B0AF1AA-2DC2-4F6D-A22E-F0EE37994394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Рисунок 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F215D36-271E-45A4-98C7-D2F2749AABAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Рисунок 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB6DB42-6A0F-42BD-81B5-3FD55CEAD221}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Рисунок 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF69C06-F2CD-4C7A-A0D0-15BA530C6019}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Рисунок 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7712A121-0008-4340-A3E6-EFAEB91BB898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Рисунок 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3071F3-2055-4813-8B9D-A37FDA61F90A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Рисунок 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC0655E-21DD-4375-AE53-F8473C1C3B89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Рисунок 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74EBAD22-7313-4D5B-8301-390DC8D693E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Рисунок 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F13389-F692-4FAE-AAFF-3094BBE0F150}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Рисунок 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDDD266E-CBCE-414A-BC87-6233BA070823}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Рисунок 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48943877-F716-4256-A78B-161420E7A495}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Рисунок 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7C51A3-901F-45F3-8D5C-EAD127A7AEA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Рисунок 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA9F8C2-0BC0-4AB4-8F6F-97C23B901DA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Рисунок 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB539A39-8ECF-4F99-8CC6-D7C685CB4AB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Рисунок 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3A2F19-494E-40B2-8A4C-873232CC4AB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Рисунок 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F30B402-C1E5-40FE-B4BF-C83FD1BFD7A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Рисунок 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B6615A-2752-4D4B-B31F-4282F00CCBF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Рисунок 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D020EE4-1C6E-4B24-A8E7-B3FFCD8857CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Рисунок 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ADDB352-065E-4CCB-89F3-16E5718228EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Рисунок 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D2BC92-8A61-41E9-BA14-20A5672C6CA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Рисунок 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F3DE42-B3E4-4BAC-A596-B207F446D7EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Рисунок 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD2D82E5-47BC-42EE-A102-92F8777D8CF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Рисунок 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F646DC-8129-4E47-8A27-6C7268CC8DE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Рисунок 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A909A22-1A07-45D3-924C-6497BEB8D03A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Рисунок 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84BF8F70-F78D-4E96-A986-57F876FC5E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Рисунок 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85240AA2-1D24-4066-9A42-E0552B20EF00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Рисунок 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{843A41E5-8B98-4DAC-BFEF-1F1F66BD0EF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Рисунок 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9FF9C8-1FFD-4D34-9036-E13BB8F3CDA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Рисунок 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C539A51-9515-45BD-A33D-6440C82491CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Рисунок 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F828ADB4-B30C-4C5E-AF43-9296112FB1E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Рисунок 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D33126-6340-4296-BCC9-EAF82B66A4B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Рисунок 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12C3717-8E31-4084-8B44-2AC8BDB44542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Рисунок 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96ABC17-884D-43E2-AF5E-CBB56DA7F89A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Рисунок 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53C80F5-42E4-47D9-8D4B-54B78F2FD49A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Рисунок 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70463AC6-7201-4772-A88C-60419C2E22FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Рисунок 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6E5F80-B895-482B-B969-E85E05A6DE1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Рисунок 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB74742-F64B-461D-B732-2C40723CD2D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Рисунок 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8FE6F6F-3AE7-44EF-A397-F4141D763A27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Рисунок 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC13453-E673-445D-A083-31AF13E3A6A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Рисунок 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53565A5-8D5E-485A-A83C-3C9B1093A93D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Рисунок 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85740200-365A-4159-B449-C809CB9C4B16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Рисунок 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC94CD7F-AAFB-46C8-B868-5618FA5D303F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Рисунок 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F76A13A-F5FB-44EB-807C-924D9FC7AAF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Рисунок 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0092F8-22AC-4316-BE98-5858C59B18DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Рисунок 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3F2CE0-A7E0-4393-A2B5-EB08FAA625A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Рисунок 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4100D221-2B41-490D-A86E-DD737C0CD6E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Рисунок 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5458325-7DC7-48D8-9C43-399E05E72F01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Рисунок 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D4C798-2DA1-4546-9E01-7CAA410C8A4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="Рисунок 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4603579F-ED31-4B1A-8EC8-05F4768447B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Рисунок 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74CAA60-A5CF-4480-8379-E6301881622E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="Рисунок 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9658C2EA-6AB6-434A-A6DC-3B4D4315F89D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="Рисунок 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7DDB3C7-CCA4-4300-AE39-E4E1879A38E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="Рисунок 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59946B3-63DF-42F9-BDD3-E2B937EA1034}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="Рисунок 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E7CE79E-34F2-4277-963D-485792E10542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="Рисунок 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C647D07C-5413-4B4A-80BC-E08C8CD2FC72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="128" name="Рисунок 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6D4CEC-03B8-4336-B371-89A08914D152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="Рисунок 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E162C81C-C706-4292-9D0F-685FD2EE6DF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="Рисунок 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48057553-FC66-4EB7-8F2A-FB70B517FA9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="Рисунок 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5D0662-FC4A-4467-A908-765919EB4EF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="Рисунок 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C6128E-F54C-4FD8-98AF-771EFBA6E28F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="Рисунок 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134FEEFF-6F8F-4A50-84D3-A2DD59DDF908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="Рисунок 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259744BD-E755-49AC-BAE6-0EC000BE1CF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="Рисунок 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B562D02A-0D9C-4B98-A0F5-7997D38FE455}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="Рисунок 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22783B5F-36F5-4FDF-91A4-D2989AB67003}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="137" name="Рисунок 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077A3CD4-EC04-47BA-B913-F30315ED4DAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="Рисунок 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA534464-2BB6-441A-BEF8-B275A7145FF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="139" name="Рисунок 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EAD265C-B164-4ED1-A121-9B2BC545895F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="140" name="Рисунок 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD61C16-72B7-44A0-AE67-6A39D794053A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="Рисунок 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975CDF0A-94B0-4648-A212-BAC8C46B3407}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="142" name="Рисунок 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{973C64E9-13EB-40B4-B9AF-1963092BBBC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="Рисунок 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F0AA1D-7ECD-4C75-A428-B772E1FF63EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="Рисунок 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B129DE-A480-4225-8E8A-533EB1FBDC9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -960,7 +6549,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE45D98-F949-466E-AFA4-819598FE44C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E593EDA-0C70-4E6B-8290-380E88783992}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1004,7 +6593,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107066E2-B3F5-4B2D-8C05-836B56460896}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868D79E3-9EB7-4C62-B1F6-A1C765DCFF61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1048,7 +6637,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DC1686-9371-41A9-A315-F2AF6BDEB893}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B167522-2764-4E98-8610-112505905CEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1092,7 +6681,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030D5CCC-F15C-47E2-8FB3-E2EB669D137A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34D9F3E-4B08-4BC6-A00A-A84925C2F67D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,7 +6725,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85103155-6CC1-4D95-974B-9DB7E3D32DB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B0A658-5FC1-4267-9ADA-37AB075D6997}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1180,7 +6769,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5298308-F66E-4447-8B78-A776AFEBB57B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B8D431-C237-4D26-B1C2-7F6C26866506}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1224,7 +6813,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E095799-D198-448E-947D-B947D857E009}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A60232-1688-4E1E-BD89-945A49057393}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +6857,359 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D85CEDA-9829-488D-96E5-AAD3A235F740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991266D6-80C0-4069-9440-E0D03E74703E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF4E99B-B286-48D7-9699-D345CA3B8E7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B771F93-EBC7-4C23-A4C8-45C3A4CA4A4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8FFD43-7212-4A05-934B-8850174CFAEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C71BE16A-F3CD-4D14-A347-E16995E3B250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF72200-458B-4DBE-8D75-13A203F652BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5728D7B3-F113-4171-935C-F2DFB58280FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935E6B76-B1EF-48A5-8F93-FA49C5741014}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66075E75-BEE5-485D-9377-A0ABDE465D29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,6 +7239,363 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE45D98-F949-466E-AFA4-819598FE44C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="685800"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380955</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107066E2-B3F5-4B2D-8C05-836B56460896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="619125"/>
+          <a:ext cx="361905" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DC1686-9371-41A9-A315-F2AF6BDEB893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="609600"/>
+          <a:ext cx="380952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352381</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030D5CCC-F15C-47E2-8FB3-E2EB669D137A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="647700"/>
+          <a:ext cx="352381" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342858</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85103155-6CC1-4D95-974B-9DB7E3D32DB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="581025"/>
+          <a:ext cx="333333" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5298308-F66E-4447-8B78-A776AFEBB57B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="571500"/>
+          <a:ext cx="333333" cy="390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E095799-D198-448E-947D-B947D857E009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143125" y="590550"/>
+          <a:ext cx="380952" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352382</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D85CEDA-9829-488D-96E5-AAD3A235F740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="609600"/>
+          <a:ext cx="342857" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1954,7 +8252,456 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="13" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1">
+        <v>5</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>1</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>1</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>4</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="1">
+        <v>8</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>1</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="1">
+        <v>12</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E12094D-996C-46BC-8089-FF6E5BA61578}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,7 +8719,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1988,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1996,22 +8743,17 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>5</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2028,9 +8770,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>2</v>
-      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -2047,9 +8787,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -2064,13 +8802,9 @@
         <v>1</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="7">
-        <v>2</v>
-      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -2086,9 +8820,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2102,12 +8834,8 @@
         <v>1</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -2123,9 +8851,7 @@
       <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2143,9 +8869,7 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7">
-        <v>2</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -2159,17 +8883,11 @@
       <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
@@ -2183,9 +8901,7 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="7">
-        <v>3</v>
-      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -2202,12 +8918,8 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
@@ -2221,9 +8933,7 @@
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="7">
-        <v>3</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -2239,9 +8949,7 @@
       <c r="A21" s="3">
         <v>1</v>
       </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -2260,9 +8968,7 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -2277,13 +8983,9 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
@@ -2298,9 +9000,7 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="7">
-        <v>2</v>
-      </c>
+      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -2314,9 +9014,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2333,15 +9031,9 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1</v>
-      </c>
-      <c r="F26" s="7">
-        <v>3</v>
-      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="8"/>
@@ -2393,12 +9085,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFA0839-8A12-4C62-B715-7A9723970ED9}">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,7 +9100,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2432,21 +9124,24 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
       <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2473,7 +9168,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -2492,7 +9187,7 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2512,9 +9207,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="7">
-        <v>2</v>
-      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -2527,14 +9220,14 @@
       <c r="A13" s="3">
         <v>1</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2549,7 +9242,7 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -2587,10 +9280,10 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -2603,10 +9296,10 @@
       <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="4">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2626,9 +9319,7 @@
       <c r="D18" s="7">
         <v>1</v>
       </c>
-      <c r="E18" s="7">
-        <v>2</v>
-      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -2641,14 +9332,14 @@
       <c r="A19" s="3">
         <v>1</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2719,7 +9410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13C2F10-DFE7-4E09-B762-CDD06C83AF30}">
   <dimension ref="A1:L34"/>
   <sheetViews>
